--- a/src/main/java/org/example/Datadriven_Framework/testdata/loginsheet.xlsx
+++ b/src/main/java/org/example/Datadriven_Framework/testdata/loginsheet.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>https://demo.opencart.com/en-gb?route=account/login</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hussainengineer2024@gmail.com</t>
   </si>
@@ -32,16 +29,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color theme="1"/>
@@ -73,17 +66,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -302,48 +292,36 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="42.88"/>
-    <col customWidth="1" min="2" max="2" width="27.5"/>
-    <col customWidth="1" min="3" max="3" width="16.13"/>
-    <col customWidth="1" min="5" max="5" width="14.75"/>
-    <col customWidth="1" min="6" max="6" width="14.5"/>
+    <col customWidth="1" min="1" max="1" width="27.5"/>
+    <col customWidth="1" min="2" max="2" width="16.13"/>
+    <col customWidth="1" min="4" max="4" width="14.75"/>
+    <col customWidth="1" min="5" max="5" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
-    <hyperlink r:id="rId2" ref="A2"/>
-  </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>